--- a/biology/Médecine/Forfait_18_euros/Forfait_18_euros.xlsx
+++ b/biology/Médecine/Forfait_18_euros/Forfait_18_euros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le forfait 18 euros représente la participation forfaitaire de 18 € (24 € en 2022[1]) restant à la charge d'un assuré social en France lorsqu'il bénéficie d'un acte médical d'un tarif égal ou supérieur à 120 €.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le forfait 18 euros représente la participation forfaitaire de 18 € (24 € en 2022) restant à la charge d'un assuré social en France lorsqu'il bénéficie d'un acte médical d'un tarif égal ou supérieur à 120 €.
 Ce forfait est également appliqué si l'acte médical a un coefficient égal ou supérieur à 60.
 Il n'est pas remboursé par l'Assurance maladie de la Sécurité sociale. Il est éventuellement remboursé par certaines assurances complémentaires et mutuelles.
-Il a été instauré par un décret[2] modifiant le Code de la sécurité sociale[3] et a pris effet le 1er septembre 2006.
+Il a été instauré par un décret modifiant le Code de la sécurité sociale et a pris effet le 1er septembre 2006.
 </t>
         </is>
       </c>
